--- a/artfynd/A 35700-2025 artfynd.xlsx
+++ b/artfynd/A 35700-2025 artfynd.xlsx
@@ -1760,7 +1760,7 @@
         <v>130562327</v>
       </c>
       <c r="B12" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>130562332</v>
       </c>
       <c r="B13" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>130562330</v>
       </c>
       <c r="B14" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>130562328</v>
       </c>
       <c r="B15" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>130562329</v>
       </c>
       <c r="B16" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>130562331</v>
       </c>
       <c r="B17" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
